--- a/SemicolonSystem.Show/Template/规则模版.xlsx
+++ b/SemicolonSystem.Show/Template/规则模版.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="规则" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -483,7 +483,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
